--- a/Team-Data/2012-13/12-13-2012-13.xlsx
+++ b/Team-Data/2012-13/12-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.454</v>
       </c>
       <c r="L2" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
         <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.698</v>
+        <v>0.707</v>
       </c>
       <c r="R2" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V2" t="n">
         <v>14.9</v>
@@ -726,100 +793,100 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" t="n">
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB2" t="n">
         <v>17</v>
       </c>
-      <c r="BB2" t="n">
-        <v>15</v>
-      </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -941,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -956,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>2.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1156,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>15</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="H5" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.42</v>
@@ -1239,67 +1306,67 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>24</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1317,16 +1384,16 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>12</v>
@@ -1335,10 +1402,10 @@
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1347,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,13 +1426,13 @@
         <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1547,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1681,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
@@ -1699,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
         <v>13</v>
@@ -1711,7 +1778,7 @@
         <v>25</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1848,19 +1915,19 @@
         <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>10</v>
@@ -1893,13 +1960,13 @@
         <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2285,7 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2230,13 +2297,13 @@
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
         <v>24</v>
@@ -2245,13 +2312,13 @@
         <v>18</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2418,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2579,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
@@ -2782,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
         <v>21</v>
@@ -2791,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2815,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2979,7 +3046,7 @@
         <v>22</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>10</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>24</v>
@@ -3003,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,73 +3117,73 @@
         <v>35.9</v>
       </c>
       <c r="J15" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P15" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
         <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
         <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="n">
         <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -3128,10 +3195,10 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3161,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
@@ -3170,7 +3237,7 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -3480,13 +3547,13 @@
         <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
         <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
@@ -3510,10 +3577,10 @@
         <v>15</v>
       </c>
       <c r="AP17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3531,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>24</v>
@@ -3543,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>7</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV18" t="n">
         <v>4</v>
@@ -3728,7 +3795,7 @@
         <v>26</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>1.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3865,7 +3932,7 @@
         <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4038,7 +4105,7 @@
         <v>27</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -4056,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>7</v>
@@ -4065,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.773</v>
+        <v>0.762</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
         <v>12</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.412</v>
+        <v>0.409</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.2</v>
+        <v>102.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4211,16 +4278,16 @@
         <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4241,13 +4308,13 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
         <v>28</v>
@@ -4271,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4456,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
@@ -4584,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
@@ -4608,19 +4675,19 @@
         <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>12</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
@@ -4793,10 +4860,10 @@
         <v>20</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>23</v>
@@ -4999,10 +5066,10 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
       <c r="H26" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L26" t="n">
         <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="R26" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
         <v>40.4</v>
@@ -5091,31 +5158,31 @@
         <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z26" t="n">
         <v>20.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
@@ -5124,13 +5191,13 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
         <v>22</v>
@@ -5145,19 +5212,19 @@
         <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
         <v>12</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT26" t="n">
         <v>24</v>
@@ -5169,25 +5236,25 @@
         <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>15</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5309,7 +5376,7 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>23</v>
@@ -5339,10 +5406,10 @@
         <v>17</v>
       </c>
       <c r="AS27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
         <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.783</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V28" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>105.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
@@ -5494,19 +5561,19 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
         <v>20</v>
@@ -5521,16 +5588,16 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5548,10 +5615,10 @@
         <v>27</v>
       </c>
       <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
         <v>2</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>29</v>
@@ -5676,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
@@ -5694,7 +5761,7 @@
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>8</v>
@@ -5709,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5858,7 +5925,7 @@
         <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>11</v>
@@ -5870,7 +5937,7 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
@@ -5909,7 +5976,7 @@
         <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-13-2012-13</t>
+          <t>2012-12-13</t>
         </is>
       </c>
     </row>
